--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/89.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/89.xlsx
@@ -479,13 +479,13 @@
         <v>-12.52276583901049</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.69232933704267</v>
+        <v>-10.6923686139512</v>
       </c>
       <c r="F2" t="n">
-        <v>-4.006561598675471</v>
+        <v>-3.981306546493781</v>
       </c>
       <c r="G2" t="n">
-        <v>-6.810094959991324</v>
+        <v>-6.842956640124056</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-11.37190827001113</v>
       </c>
       <c r="E3" t="n">
-        <v>-11.05049546588377</v>
+        <v>-11.05104534260312</v>
       </c>
       <c r="F3" t="n">
-        <v>-4.047187014393346</v>
+        <v>-4.016760502589175</v>
       </c>
       <c r="G3" t="n">
-        <v>-6.814297589203518</v>
+        <v>-6.842302024981969</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-10.03125992974091</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.88337540346302</v>
+        <v>-11.8829302651664</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.80061967497512</v>
+        <v>-3.774094669417782</v>
       </c>
       <c r="G4" t="n">
-        <v>-6.647658758634028</v>
+        <v>-6.675846486652264</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-8.641855561713454</v>
       </c>
       <c r="E5" t="n">
-        <v>-12.7381063944851</v>
+        <v>-12.74099979341312</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.886675381553785</v>
+        <v>-3.85296270173634</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.993596676620957</v>
+        <v>-7.025620449371818</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-7.2097105443335</v>
       </c>
       <c r="E6" t="n">
-        <v>-13.4544386521673</v>
+        <v>-13.46112881891943</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.641207795574263</v>
+        <v>-3.608463946167106</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.552124224797954</v>
+        <v>-6.579578783857053</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-5.77331533769686</v>
       </c>
       <c r="E7" t="n">
-        <v>-14.1453849346394</v>
+        <v>-14.15248096277961</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.694153068266203</v>
+        <v>-3.657599358732104</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.724065438018342</v>
+        <v>-6.751087951083664</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-4.348871049239031</v>
       </c>
       <c r="E8" t="n">
-        <v>-14.76339399798023</v>
+        <v>-14.77426060933887</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.519279179209268</v>
+        <v>-3.486692437436212</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.40669492483206</v>
+        <v>-6.425037241113318</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-2.951018371817757</v>
       </c>
       <c r="E9" t="n">
-        <v>-15.67692252106451</v>
+        <v>-15.68848302447376</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.36251194498244</v>
+        <v>-3.328406496079744</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.186508575639911</v>
+        <v>-6.193945003654012</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-1.591101911637827</v>
       </c>
       <c r="E10" t="n">
-        <v>-16.32867044882848</v>
+        <v>-16.34045352138603</v>
       </c>
       <c r="F10" t="n">
-        <v>-3.350990718481721</v>
+        <v>-3.31480359342719</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.753611582178238</v>
+        <v>-5.763286793978274</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.2730051899512371</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.8687672179582</v>
+        <v>-16.88817001076964</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.206255310566439</v>
+        <v>-3.172817569108671</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.521838544971162</v>
+        <v>-5.532731340935478</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.9924570228637194</v>
       </c>
       <c r="E12" t="n">
-        <v>-17.49147641801922</v>
+        <v>-17.50830002717084</v>
       </c>
       <c r="F12" t="n">
-        <v>-3.330409618414528</v>
+        <v>-3.302797951721328</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.925745996587374</v>
+        <v>-4.937424330722194</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>2.206099869125899</v>
       </c>
       <c r="E13" t="n">
-        <v>-18.38490825624145</v>
+        <v>-18.39976801996681</v>
       </c>
       <c r="F13" t="n">
-        <v>-3.108364162218853</v>
+        <v>-3.079980049657991</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.278789851663481</v>
+        <v>-4.28894947866866</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>3.359291374924512</v>
       </c>
       <c r="E14" t="n">
-        <v>-19.11100737184358</v>
+        <v>-19.12009343001574</v>
       </c>
       <c r="F14" t="n">
-        <v>-2.991515359356448</v>
+        <v>-2.962790846921701</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.724422472436274</v>
+        <v>-3.743144465499942</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>4.456891548829787</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.87699873420445</v>
+        <v>-19.89246074386052</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.916849956250084</v>
+        <v>-2.886672198199906</v>
       </c>
       <c r="G15" t="n">
-        <v>-3.126837401528529</v>
+        <v>-3.145192810112629</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>5.493724801147918</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.73907450712074</v>
+        <v>-20.76063752990106</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.906991452210265</v>
+        <v>-2.872244480468324</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.527000454532007</v>
+        <v>-2.554743044253625</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>6.470256706437914</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.45386187306762</v>
+        <v>-21.47721854133725</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.82776992771498</v>
+        <v>-2.793036048275881</v>
       </c>
       <c r="G17" t="n">
-        <v>-2.106331671924507</v>
+        <v>-2.133589846440981</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>7.374812479501971</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.36301756700276</v>
+        <v>-22.38877012669243</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.731227286560092</v>
+        <v>-2.694608115511785</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.876103526452754</v>
+        <v>-1.897836749170019</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>8.193295286376904</v>
       </c>
       <c r="E19" t="n">
-        <v>-23.20637134685538</v>
+        <v>-23.23302727544114</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.746060865679768</v>
+        <v>-2.712636216524841</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.410855452669177</v>
+        <v>-1.441046303022197</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>8.90313693768762</v>
       </c>
       <c r="E20" t="n">
-        <v>-24.00498872789783</v>
+        <v>-24.02969390336017</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.524421270872188</v>
+        <v>-2.4923582212128</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.171632895145158</v>
+        <v>-1.196403532121704</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>9.480478772357534</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.45791694470734</v>
+        <v>-24.48556788830907</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.365140314499748</v>
+        <v>-2.334412679730217</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.7813120705247787</v>
+        <v>-0.8062267228325833</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>9.904215049818458</v>
       </c>
       <c r="E22" t="n">
-        <v>-25.1205183915271</v>
+        <v>-25.14798604288904</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.157954622029433</v>
+        <v>-2.131691462528931</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.6255005744053967</v>
+        <v>-0.638776169486907</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>10.15729897963383</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.68936585769726</v>
+        <v>-25.71587777095175</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.153241393006412</v>
+        <v>-2.127475741013895</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.2557477575493691</v>
+        <v>-0.2763550422222459</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>10.23544908866038</v>
       </c>
       <c r="E24" t="n">
-        <v>-26.1275259569013</v>
+        <v>-26.15382839331033</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.101513704478752</v>
+        <v>-2.079793574064329</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.2954567120683242</v>
+        <v>-0.3125028903682516</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>10.13993065904347</v>
       </c>
       <c r="E25" t="n">
-        <v>-26.40368190074183</v>
+        <v>-26.43029855241906</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.7540308947565</v>
+        <v>-1.733606902323408</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.2744435660073539</v>
+        <v>-0.2892509605213461</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>9.888429500856327</v>
       </c>
       <c r="E26" t="n">
-        <v>-26.32224777706629</v>
+        <v>-26.35065807423284</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.656741992339634</v>
+        <v>-1.640088583124958</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.4338030761968436</v>
+        <v>-0.4483355323511596</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>9.499383979554743</v>
       </c>
       <c r="E27" t="n">
-        <v>-26.24986043465439</v>
+        <v>-26.28689855939363</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.731237195509055</v>
+        <v>-1.715775185852977</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.3874825087428168</v>
+        <v>-0.3955866442018453</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>9.005979591159527</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.41234900522305</v>
+        <v>-26.44327302453521</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.448181608070938</v>
+        <v>-1.432431567752341</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.7214671542352488</v>
+        <v>-0.7282751517129463</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>8.43579374998601</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.33352024981302</v>
+        <v>-26.3714486511455</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.361589117075761</v>
+        <v>-1.349675121489791</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.7924012510317207</v>
+        <v>-0.7968657263007493</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>7.828805143338312</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.14366876630515</v>
+        <v>-26.17814079968742</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.441334333684715</v>
+        <v>-1.429446522704428</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.9328292913120745</v>
+        <v>-0.9355917672116787</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>7.211606112444035</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.80542912238916</v>
+        <v>-25.83829080252189</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.354702565781013</v>
+        <v>-1.343665754485438</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.413997605351191</v>
+        <v>-1.414639128190436</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>6.618459378002157</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.8251461304688</v>
+        <v>-25.8621711629052</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.188469596599618</v>
+        <v>-1.179422815335985</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.710983403012905</v>
+        <v>-1.715814462761502</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>6.063818380545334</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.47317266087184</v>
+        <v>-25.50833858630471</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.160504437729691</v>
+        <v>-1.153408409589475</v>
       </c>
       <c r="G33" t="n">
-        <v>-2.213688555226661</v>
+        <v>-2.220417998887308</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>5.567779037268483</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.91847797407359</v>
+        <v>-24.94703228657139</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.182852998680517</v>
+        <v>-1.177550616029618</v>
       </c>
       <c r="G34" t="n">
-        <v>-2.316240563385901</v>
+        <v>-2.320312269569678</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>5.129586934030524</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.50756295708317</v>
+        <v>-24.53957363753119</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.35087961335123</v>
+        <v>-1.346166384328208</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.522679994594238</v>
+        <v>-2.52209084096636</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>4.754397097838853</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.85599832155899</v>
+        <v>-23.88522034150172</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.349923875243783</v>
+        <v>-1.34511900010087</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.709533340751352</v>
+        <v>-2.702528958731029</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>4.428897248293301</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.09417031150179</v>
+        <v>-23.12114045535575</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.332105251076194</v>
+        <v>-1.329159482936806</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.846858505258217</v>
+        <v>-2.846583566898541</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>4.147484307315836</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.70834014675612</v>
+        <v>-22.7316444458144</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.407071777147918</v>
+        <v>-1.403052440175508</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.16150581945342</v>
+        <v>-3.164477772198492</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>3.890970328477165</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.07807668795543</v>
+        <v>-22.11028375294608</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.31576605712972</v>
+        <v>-1.308185613784361</v>
       </c>
       <c r="G39" t="n">
-        <v>-3.391092442085928</v>
+        <v>-3.395072502149813</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>3.649923302680794</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.58998254571304</v>
+        <v>-21.62201941076674</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.483268979686764</v>
+        <v>-1.474876813565217</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.622407248693544</v>
+        <v>-3.626426585665954</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>3.40632424429787</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.11986413527234</v>
+        <v>-21.13499883735738</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.392421490268026</v>
+        <v>-1.379800510328602</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.624266355697069</v>
+        <v>-3.627185939230774</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>3.153093115787706</v>
       </c>
       <c r="E42" t="n">
-        <v>-20.30520868324878</v>
+        <v>-20.33321311902723</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.11695943847811</v>
+        <v>-1.102885212923254</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.737017267770014</v>
+        <v>-3.742908804048791</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>2.877400428934949</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.47539234453449</v>
+        <v>-19.49317169179356</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.125613450656491</v>
+        <v>-1.111905809581204</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.8752588934758</v>
+        <v>-3.879854291773245</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>2.576819195271646</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.05154213233646</v>
+        <v>-19.07048669454844</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.144322351417317</v>
+        <v>-1.12871632642998</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.102449624688272</v>
+        <v>-4.108995776109135</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>2.24446145458686</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.55931082239608</v>
+        <v>-18.57270424820317</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.134097262897929</v>
+        <v>-1.119263683778254</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.212883199158232</v>
+        <v>-4.217072736067584</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>1.882732353596625</v>
       </c>
       <c r="E46" t="n">
-        <v>-18.09970553113729</v>
+        <v>-18.10655280552351</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.098446922259909</v>
+        <v>-1.08388828149991</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.344722688774413</v>
+        <v>-4.342798120256679</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>1.489324970388928</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.34168738120703</v>
+        <v>-17.35320860770775</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.188783811867819</v>
+        <v>-1.171776910476417</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.65515428145458</v>
+        <v>-4.657969126565551</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>1.069498449261402</v>
       </c>
       <c r="E48" t="n">
-        <v>-16.49863472431976</v>
+        <v>-16.51269585757178</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.115349085228577</v>
+        <v>-1.099455029578722</v>
       </c>
       <c r="G48" t="n">
-        <v>-4.601580578226237</v>
+        <v>-4.59940725595451</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.6239363404938986</v>
       </c>
       <c r="E49" t="n">
-        <v>-15.85877460753609</v>
+        <v>-15.86280703681134</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.056787214617537</v>
+        <v>-1.034713592026387</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.834492645780544</v>
+        <v>-4.836260106664176</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1606610512459692</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.98145939411202</v>
+        <v>-14.99256166692181</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.017837613663402</v>
+        <v>-0.9991156205997336</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.954889462713057</v>
+        <v>-4.954614524353381</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.3181464253089647</v>
       </c>
       <c r="E51" t="n">
-        <v>-14.18480585849583</v>
+        <v>-14.19293617856055</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.019042105524841</v>
+        <v>-1.000961635300417</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.140027717197905</v>
+        <v>-5.141546424327545</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.8045082552093545</v>
       </c>
       <c r="E52" t="n">
-        <v>-13.47829282794493</v>
+        <v>-13.49681843646597</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9641591720123249</v>
+        <v>-0.9447171022923617</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.042058015033269</v>
+        <v>-5.046038075097154</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-1.297838366696087</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.77801173354668</v>
+        <v>-12.79427237367611</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9574297283516777</v>
+        <v>-0.9353168288520024</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.121318816437078</v>
+        <v>-5.124539522936143</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-1.790932011297161</v>
       </c>
       <c r="E54" t="n">
-        <v>-12.4115058077954</v>
+        <v>-12.42544911032184</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.155162778170266</v>
+        <v>-1.133547386178577</v>
       </c>
       <c r="G54" t="n">
-        <v>-5.292553045304014</v>
+        <v>-5.296637843790632</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-2.282914514058274</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.72992052185515</v>
+        <v>-11.73901967233015</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.243221607083716</v>
+        <v>-1.220598107773213</v>
       </c>
       <c r="G55" t="n">
-        <v>-5.770618483569641</v>
+        <v>-5.77311911341241</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-2.766039451213304</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.30745809375833</v>
+        <v>-11.31710712095268</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.256012786960082</v>
+        <v>-1.231844395914256</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.903295880567692</v>
+        <v>-5.905469202839419</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-3.239093513650519</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.53245922704235</v>
+        <v>-10.54074665474117</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.244609391184939</v>
+        <v>-1.220231523293645</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.360479095800767</v>
+        <v>-6.36428895592771</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-3.694037230756741</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.0674075378014</v>
+        <v>-10.08289573206316</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.444895440057664</v>
+        <v>-1.418056219232126</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.207469352489515</v>
+        <v>-6.214709395960989</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-4.129092509106941</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.495980887971427</v>
+        <v>-9.506153607279447</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.434827459172377</v>
+        <v>-1.408943976454285</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.432944992029721</v>
+        <v>-6.441559727299577</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-4.535446422702802</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.208775040532482</v>
+        <v>-9.221160359020756</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.51471669111259</v>
+        <v>-1.490535207763922</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.316842450429294</v>
+        <v>-6.328219661598754</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-4.910043120598913</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.582413087978622</v>
+        <v>-8.601920619212795</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.594605923052802</v>
+        <v>-1.566405102731724</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.721342239027263</v>
+        <v>-6.725073545337155</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-5.243093035309904</v>
       </c>
       <c r="E62" t="n">
-        <v>-8.009768853984367</v>
+        <v>-8.030349954051561</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.513499106948309</v>
+        <v>-1.488545177731979</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.589830056982124</v>
+        <v>-6.596402393008671</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-5.531140163171736</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.545803825879278</v>
+        <v>-7.564630557365681</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.499712912055972</v>
+        <v>-1.470006476908095</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.657595816490899</v>
+        <v>-6.666537859331798</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-5.765912714102175</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.133173717216598</v>
+        <v>-7.158625153940913</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.642497566847836</v>
+        <v>-1.614100361984132</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.832783920816035</v>
+        <v>-6.840010871984668</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-5.946107749756406</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.703157030380106</v>
+        <v>-6.727783652025392</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.52761260941169</v>
+        <v>-1.500694834769101</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.005811795172287</v>
+        <v>-7.005733241355236</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-6.067361714140977</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.460870873991123</v>
+        <v>-6.482800481251013</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.687666011651791</v>
+        <v>-1.66247642098431</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.038725844516386</v>
+        <v>-7.041435951204623</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-6.13275131390091</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.328717169106739</v>
+        <v>-6.354325713465156</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.678776338022259</v>
+        <v>-1.653809316503087</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.095127485158542</v>
+        <v>-7.100600067746384</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-6.142649780342236</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.053700255613442</v>
+        <v>-6.079793215177002</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.613000608545427</v>
+        <v>-1.594475000024385</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.049304425212501</v>
+        <v>-7.050626747799515</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-6.102616064144513</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.959409490547331</v>
+        <v>-5.987571033959884</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.892010674405451</v>
+        <v>-1.870473836230812</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.082650520550377</v>
+        <v>-7.081576951717356</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-6.014233357734823</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.859410481442227</v>
+        <v>-5.891316423467513</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.841932616035849</v>
+        <v>-1.82237271559031</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.823881154883662</v>
+        <v>-6.824666693054165</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-5.883664020756863</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.598022655207166</v>
+        <v>-5.632180473321229</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.856386518373115</v>
+        <v>-1.838004925183331</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.727718190511183</v>
+        <v>-6.72549249902809</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-5.714428181566462</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.689550944373673</v>
+        <v>-5.728605283750542</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.937519519083291</v>
+        <v>-1.919281941224767</v>
       </c>
       <c r="G72" t="n">
-        <v>-6.543666597162198</v>
+        <v>-6.538547506751083</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-5.515186206664599</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.761440779277591</v>
+        <v>-5.800652226288561</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.025277225031381</v>
+        <v>-2.007314585532533</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.377656197129112</v>
+        <v>-6.373558306339651</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-5.291699028237487</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.962761120074813</v>
+        <v>-6.00006109087089</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.886603553331819</v>
+        <v>-1.868771836861388</v>
       </c>
       <c r="G74" t="n">
-        <v>-6.273192712754979</v>
+        <v>-6.262470116727606</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-5.053466702474317</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.116137447865634</v>
+        <v>-6.156645032857934</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.146577410859973</v>
+        <v>-2.133602938743822</v>
       </c>
       <c r="G75" t="n">
-        <v>-6.128994089256208</v>
+        <v>-6.119331969759014</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-4.805602426551553</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.595315731872808</v>
+        <v>-6.636360101281618</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.127148433442851</v>
+        <v>-2.109866593691773</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.892088869335176</v>
+        <v>-5.878944197282082</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-4.555528543365844</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.056767037832285</v>
+        <v>-7.091998424779369</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.179687844746698</v>
+        <v>-2.163780696794001</v>
       </c>
       <c r="G77" t="n">
-        <v>-5.948569063794381</v>
+        <v>-5.937911929281216</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-4.30512824722979</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.541745211998343</v>
+        <v>-7.577487198756256</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.129753801708355</v>
+        <v>-2.111581685364039</v>
       </c>
       <c r="G78" t="n">
-        <v>-5.576250155581375</v>
+        <v>-5.564440898418138</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-4.057797174955382</v>
       </c>
       <c r="E79" t="n">
-        <v>-7.93705420400142</v>
+        <v>-7.969824238014261</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.165587434586159</v>
+        <v>-2.15284862392116</v>
       </c>
       <c r="G79" t="n">
-        <v>-5.414966076874152</v>
+        <v>-5.403169912013757</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-3.811496779188386</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.316259663509173</v>
+        <v>-8.35180526572446</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.431256443850465</v>
+        <v>-2.416985833752983</v>
       </c>
       <c r="G80" t="n">
-        <v>-5.022092253199636</v>
+        <v>-5.011513672503522</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-3.566548078808379</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.221657866528741</v>
+        <v>-9.253354331708559</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.355622210333813</v>
+        <v>-2.339990000740792</v>
       </c>
       <c r="G81" t="n">
-        <v>-5.015585378687298</v>
+        <v>-5.001576614646652</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-3.31966600799441</v>
       </c>
       <c r="E82" t="n">
-        <v>-9.954918471785293</v>
+        <v>-9.981967169456299</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.445199746376903</v>
+        <v>-2.429161675395788</v>
       </c>
       <c r="G82" t="n">
-        <v>-4.845804395435795</v>
+        <v>-4.832005108240615</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-3.070769899710531</v>
       </c>
       <c r="E83" t="n">
-        <v>-10.70886491553177</v>
+        <v>-10.73353081408558</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.513423736485137</v>
+        <v>-2.505227954906217</v>
       </c>
       <c r="G83" t="n">
-        <v>-4.519491839408614</v>
+        <v>-4.504618983380413</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-2.817192825385964</v>
       </c>
       <c r="E84" t="n">
-        <v>-11.84936160068021</v>
+        <v>-11.8756509447864</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.59415087580722</v>
+        <v>-2.582590372397976</v>
       </c>
       <c r="G84" t="n">
-        <v>-4.413823863173043</v>
+        <v>-4.397864346008979</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-2.559742359256133</v>
       </c>
       <c r="E85" t="n">
-        <v>-12.66306131459633</v>
+        <v>-12.68800215150982</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.737079545930344</v>
+        <v>-2.725584504035309</v>
       </c>
       <c r="G85" t="n">
-        <v>-4.04873190612867</v>
+        <v>-4.030716897418455</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-2.297313404082438</v>
       </c>
       <c r="E86" t="n">
-        <v>-13.69660697783071</v>
+        <v>-13.72393061386139</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.833347248725556</v>
+        <v>-2.822519914275448</v>
       </c>
       <c r="G86" t="n">
-        <v>-3.733155038431705</v>
+        <v>-3.720494781583756</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-2.032854570429371</v>
       </c>
       <c r="E87" t="n">
-        <v>-14.69418808515887</v>
+        <v>-14.72083092144178</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.868172774284547</v>
+        <v>-2.858523747090195</v>
       </c>
       <c r="G87" t="n">
-        <v>-3.282256128562659</v>
+        <v>-3.266492995941221</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-1.768694520611559</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.05644219584047</v>
+        <v>-16.07704948051335</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.772206194454695</v>
+        <v>-2.757896307448688</v>
       </c>
       <c r="G88" t="n">
-        <v>-3.032310975011267</v>
+        <v>-3.016966796080764</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-1.511277835835787</v>
       </c>
       <c r="E89" t="n">
-        <v>-17.48147389864814</v>
+        <v>-17.50583867423659</v>
       </c>
       <c r="F89" t="n">
-        <v>-3.013039105228246</v>
+        <v>-3.003612647182203</v>
       </c>
       <c r="G89" t="n">
-        <v>-2.764468643475235</v>
+        <v>-2.752345171043797</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-1.265267449502994</v>
       </c>
       <c r="E90" t="n">
-        <v>-18.95179187698535</v>
+        <v>-18.97508308374078</v>
       </c>
       <c r="F90" t="n">
-        <v>-3.210222278327482</v>
+        <v>-3.199067636306332</v>
       </c>
       <c r="G90" t="n">
-        <v>-2.639987028056103</v>
+        <v>-2.630835508369737</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-1.036752008415332</v>
       </c>
       <c r="E91" t="n">
-        <v>-20.57696561333449</v>
+        <v>-20.59525556040438</v>
       </c>
       <c r="F91" t="n">
-        <v>-3.419005231744488</v>
+        <v>-3.404145468019129</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.701651774440633</v>
+        <v>-2.696702883966461</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.828166714916175</v>
       </c>
       <c r="E92" t="n">
-        <v>-22.05392138921244</v>
+        <v>-22.07384787413755</v>
       </c>
       <c r="F92" t="n">
-        <v>-3.432660503608408</v>
+        <v>-3.42523716789715</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.590445754103012</v>
+        <v>-2.581608449684847</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.642120619334589</v>
       </c>
       <c r="E93" t="n">
-        <v>-24.04584980506686</v>
+        <v>-24.06612978216869</v>
       </c>
       <c r="F93" t="n">
-        <v>-3.64103759563732</v>
+        <v>-3.62320587916689</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.562166379964884</v>
+        <v>-2.555044167218985</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.4777711303216077</v>
       </c>
       <c r="E94" t="n">
-        <v>-26.21516583212382</v>
+        <v>-26.23337722537666</v>
       </c>
       <c r="F94" t="n">
-        <v>-3.446774006071789</v>
+        <v>-3.430762119696358</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.718881244980345</v>
+        <v>-2.709415510025777</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.3340730330826112</v>
       </c>
       <c r="E95" t="n">
-        <v>-28.39047813388229</v>
+        <v>-28.40965835754541</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.948012820367271</v>
+        <v>-3.92828271998479</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.940730316633393</v>
+        <v>-2.93654077972404</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.207426013502882</v>
       </c>
       <c r="E96" t="n">
-        <v>-30.43604571447925</v>
+        <v>-30.46001772098245</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.929015888943927</v>
+        <v>-3.909207234744395</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.274151993103631</v>
+        <v>-3.269936271588595</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.09315308518544244</v>
       </c>
       <c r="E97" t="n">
-        <v>-32.7043526433225</v>
+        <v>-32.73140134099351</v>
       </c>
       <c r="F97" t="n">
-        <v>-4.085704569353704</v>
+        <v>-4.070111636669209</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.358348592678771</v>
+        <v>-3.35379247128985</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.01363707155621268</v>
       </c>
       <c r="E98" t="n">
-        <v>-35.20512650142344</v>
+        <v>-35.22869264653855</v>
       </c>
       <c r="F98" t="n">
-        <v>-4.362934082027254</v>
+        <v>-4.343347996976032</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.783246189104149</v>
+        <v>-3.781989328031343</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.1184193762295085</v>
       </c>
       <c r="E99" t="n">
-        <v>-37.60515508915729</v>
+        <v>-37.62742509629107</v>
       </c>
       <c r="F99" t="n">
-        <v>-4.22030653486949</v>
+        <v>-4.205119463573088</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.174313274986506</v>
+        <v>-4.168461015616255</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.2225709493018207</v>
       </c>
       <c r="E100" t="n">
-        <v>-40.22715057926978</v>
+        <v>-40.24794115618243</v>
       </c>
       <c r="F100" t="n">
-        <v>-4.339525044546248</v>
+        <v>-4.322832358423047</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.425004689799877</v>
+        <v>-4.419073876612575</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.329386720580701</v>
       </c>
       <c r="E101" t="n">
-        <v>-42.66705832145953</v>
+        <v>-42.68648729887665</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.494642648615018</v>
+        <v>-4.477949962491818</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.934897516273741</v>
+        <v>-4.925876919615791</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.433502917054177</v>
       </c>
       <c r="E102" t="n">
-        <v>-45.03402884451803</v>
+        <v>-45.05564423650971</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.584194000052425</v>
+        <v>-4.568601067367929</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.141598793538912</v>
+        <v>-5.138063871771646</v>
       </c>
     </row>
   </sheetData>
